--- a/SuRGE_Sharepoint/data/CIN/CH4_209_otter/dataSheets/surgeData209.xlsx
+++ b/SuRGE_Sharepoint/data/CIN/CH4_209_otter/dataSheets/surgeData209.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://usepa.sharepoint.com/sites/SuRGE/Shared Documents/data/CIN/CH4_209_otter/dataSheets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1032" documentId="8_{574317AD-36CA-42B2-83FE-C04BF0299D3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BE991659-B494-453B-8CC1-F73789992067}"/>
+  <xr:revisionPtr revIDLastSave="1034" documentId="8_{574317AD-36CA-42B2-83FE-C04BF0299D3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6E638E40-3D98-4A7C-BC3E-D78E09F98B67}"/>
   <bookViews>
-    <workbookView xWindow="-19310" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12432" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
   <definedNames>
     <definedName name="_xlnm.Database">data!$B$2:$BN$47</definedName>
   </definedNames>
-  <calcPr calcId="191029" concurrentManualCount="4"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="447" uniqueCount="203">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="446" uniqueCount="203">
   <si>
     <t>lake.id</t>
   </si>
@@ -1321,10 +1321,14 @@
 </styleSheet>
 </file>
 
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1362,7 +1366,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -1468,7 +1472,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1610,7 +1614,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1620,75 +1624,74 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BP19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="J4" sqref="J4"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="2" topLeftCell="BE1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="A3" sqref="A3:BI3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="6.26953125" style="25" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.81640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.54296875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.21875" style="25" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.77734375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.5546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.7265625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.81640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.77734375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.77734375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="15" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="12.453125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.81640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.54296875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.453125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.7265625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="9.453125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.7265625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="9.453125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.7265625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="17.26953125" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="15.7265625" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="16.7265625" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="12.1796875" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="9.1796875" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="13.453125" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="6.54296875" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="7.453125" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="8.7265625" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.77734375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.5546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.77734375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.77734375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.77734375" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="17.21875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="15.77734375" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="16.77734375" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="12.21875" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="9.21875" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="13.44140625" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="6.5546875" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="8.77734375" bestFit="1" customWidth="1"/>
     <col min="28" max="28" width="5" bestFit="1" customWidth="1"/>
-    <col min="29" max="30" width="5.7265625" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="10.1796875" bestFit="1" customWidth="1"/>
+    <col min="29" max="30" width="5.77734375" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="10.21875" bestFit="1" customWidth="1"/>
     <col min="32" max="32" width="11" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="12.26953125" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="7.81640625" bestFit="1" customWidth="1"/>
-    <col min="35" max="36" width="9.26953125" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="16.26953125" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="15.81640625" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="17.26953125" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="12.7265625" bestFit="1" customWidth="1"/>
-    <col min="41" max="42" width="14.1796875" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="13.7265625" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="6.7265625" bestFit="1" customWidth="1"/>
-    <col min="45" max="45" width="7.7265625" bestFit="1" customWidth="1"/>
-    <col min="46" max="46" width="8.81640625" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="12.21875" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="7.77734375" bestFit="1" customWidth="1"/>
+    <col min="35" max="36" width="9.21875" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="16.21875" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="15.77734375" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="17.21875" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="12.77734375" bestFit="1" customWidth="1"/>
+    <col min="41" max="42" width="14.21875" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="13.77734375" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="6.77734375" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="7.77734375" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="8.77734375" bestFit="1" customWidth="1"/>
     <col min="47" max="47" width="5" bestFit="1" customWidth="1"/>
-    <col min="48" max="48" width="5.26953125" bestFit="1" customWidth="1"/>
-    <col min="49" max="49" width="6.453125" bestFit="1" customWidth="1"/>
-    <col min="50" max="50" width="10.26953125" bestFit="1" customWidth="1"/>
-    <col min="51" max="51" width="11.26953125" bestFit="1" customWidth="1"/>
-    <col min="52" max="52" width="12.453125" bestFit="1" customWidth="1"/>
-    <col min="53" max="53" width="8.1796875" bestFit="1" customWidth="1"/>
-    <col min="54" max="55" width="9.453125" bestFit="1" customWidth="1"/>
-    <col min="56" max="56" width="15.26953125" bestFit="1" customWidth="1"/>
-    <col min="57" max="57" width="16.1796875" bestFit="1" customWidth="1"/>
-    <col min="58" max="58" width="17.453125" bestFit="1" customWidth="1"/>
-    <col min="59" max="59" width="12.81640625" bestFit="1" customWidth="1"/>
-    <col min="60" max="61" width="14.26953125" bestFit="1" customWidth="1"/>
-    <col min="62" max="64" width="9.453125" bestFit="1" customWidth="1"/>
-    <col min="65" max="65" width="9.1796875" bestFit="1" customWidth="1"/>
-    <col min="66" max="66" width="9.26953125" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="5.21875" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="6.44140625" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="10.21875" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="11.21875" bestFit="1" customWidth="1"/>
+    <col min="52" max="52" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="53" max="53" width="8.21875" bestFit="1" customWidth="1"/>
+    <col min="54" max="55" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="56" max="56" width="15.21875" bestFit="1" customWidth="1"/>
+    <col min="57" max="57" width="16.21875" bestFit="1" customWidth="1"/>
+    <col min="58" max="58" width="17.44140625" bestFit="1" customWidth="1"/>
+    <col min="59" max="59" width="12.77734375" bestFit="1" customWidth="1"/>
+    <col min="60" max="61" width="14.21875" bestFit="1" customWidth="1"/>
+    <col min="62" max="64" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="65" max="66" width="9.21875" bestFit="1" customWidth="1"/>
     <col min="67" max="67" width="18" bestFit="1" customWidth="1"/>
-    <col min="68" max="68" width="22.81640625" bestFit="1" customWidth="1"/>
+    <col min="68" max="68" width="22.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:68" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:68" x14ac:dyDescent="0.3">
       <c r="A1" s="29" t="s">
         <v>54</v>
       </c>
@@ -1770,7 +1773,7 @@
       <c r="BO1" s="28"/>
       <c r="BP1" s="28"/>
     </row>
-    <row r="2" spans="1:68" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:68" x14ac:dyDescent="0.3">
       <c r="A2" s="24" t="s">
         <v>0</v>
       </c>
@@ -1976,18 +1979,108 @@
         <v>200</v>
       </c>
     </row>
-    <row r="3" spans="1:68" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:68" x14ac:dyDescent="0.3">
       <c r="A3" s="25" t="s">
         <v>163</v>
       </c>
       <c r="B3" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C3" t="s">
-        <v>181</v>
-      </c>
-      <c r="J3" t="s">
-        <v>202</v>
+        <v>182</v>
+      </c>
+      <c r="D3">
+        <v>37.405507999999998</v>
+      </c>
+      <c r="E3">
+        <v>-87.522049999999993</v>
+      </c>
+      <c r="F3" t="s">
+        <v>183</v>
+      </c>
+      <c r="G3" s="26">
+        <v>0.7416666666666667</v>
+      </c>
+      <c r="H3" t="s">
+        <v>184</v>
+      </c>
+      <c r="I3" s="26">
+        <v>0.5</v>
+      </c>
+      <c r="J3">
+        <v>0.5</v>
+      </c>
+      <c r="R3" t="s">
+        <v>184</v>
+      </c>
+      <c r="S3" s="26">
+        <v>0.41875000000000001</v>
+      </c>
+      <c r="T3">
+        <v>29.6</v>
+      </c>
+      <c r="U3">
+        <v>30</v>
+      </c>
+      <c r="V3">
+        <v>40</v>
+      </c>
+      <c r="W3">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="X3">
+        <v>0.1</v>
+      </c>
+      <c r="Y3">
+        <v>29.8</v>
+      </c>
+      <c r="Z3">
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="AA3">
+        <v>165</v>
+      </c>
+      <c r="AB3">
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="AC3">
+        <v>6</v>
+      </c>
+      <c r="AD3">
+        <v>2</v>
+      </c>
+      <c r="AH3">
+        <v>1</v>
+      </c>
+      <c r="AN3" t="s">
+        <v>162</v>
+      </c>
+      <c r="AQ3">
+        <v>3.9</v>
+      </c>
+      <c r="AR3">
+        <v>24.2</v>
+      </c>
+      <c r="AS3">
+        <v>2.4</v>
+      </c>
+      <c r="AT3">
+        <v>162</v>
+      </c>
+      <c r="AU3">
+        <v>7.4</v>
+      </c>
+      <c r="AV3">
+        <v>6.3</v>
+      </c>
+      <c r="AW3">
+        <v>6.5</v>
+      </c>
+      <c r="BA3">
+        <v>1</v>
+      </c>
+      <c r="BG3" t="s">
+        <v>162</v>
       </c>
       <c r="BJ3" t="s">
         <v>190</v>
@@ -2011,33 +2104,33 @@
         <v>0.49583333333333335</v>
       </c>
     </row>
-    <row r="4" spans="1:68" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:68" x14ac:dyDescent="0.3">
       <c r="A4" s="25" t="s">
         <v>163</v>
       </c>
       <c r="B4" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C4" t="s">
         <v>182</v>
       </c>
       <c r="D4">
-        <v>37.405507999999998</v>
+        <v>37.404949999999999</v>
       </c>
       <c r="E4">
-        <v>-87.522049999999993</v>
+        <v>-87.519375999999994</v>
       </c>
       <c r="F4" t="s">
         <v>183</v>
       </c>
       <c r="G4" s="26">
-        <v>0.7416666666666667</v>
+        <v>0.7090277777777777</v>
       </c>
       <c r="H4" t="s">
         <v>184</v>
       </c>
       <c r="I4" s="26">
-        <v>0.5</v>
+        <v>0.47638888888888892</v>
       </c>
       <c r="J4">
         <v>0.5</v>
@@ -2046,28 +2139,28 @@
         <v>184</v>
       </c>
       <c r="S4" s="26">
-        <v>0.41875000000000001</v>
+        <v>0.3888888888888889</v>
       </c>
       <c r="T4">
-        <v>29.6</v>
+        <v>29.2</v>
       </c>
       <c r="U4">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="V4">
         <v>40</v>
       </c>
       <c r="W4">
-        <v>4.9000000000000004</v>
+        <v>3.3</v>
       </c>
       <c r="X4">
         <v>0.1</v>
       </c>
       <c r="Y4">
-        <v>29.8</v>
+        <v>29.7</v>
       </c>
       <c r="Z4">
-        <v>9.3000000000000007</v>
+        <v>9.1999999999999993</v>
       </c>
       <c r="AA4">
         <v>165</v>
@@ -2076,10 +2169,10 @@
         <v>9.3000000000000007</v>
       </c>
       <c r="AC4">
-        <v>6</v>
+        <v>3.6</v>
       </c>
       <c r="AD4">
-        <v>2</v>
+        <v>1.3</v>
       </c>
       <c r="AH4">
         <v>1</v>
@@ -2088,25 +2181,25 @@
         <v>162</v>
       </c>
       <c r="AQ4">
+        <v>2.8</v>
+      </c>
+      <c r="AR4">
+        <v>28.3</v>
+      </c>
+      <c r="AS4">
+        <v>7.4</v>
+      </c>
+      <c r="AT4">
+        <v>165</v>
+      </c>
+      <c r="AU4">
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="AV4">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="AW4">
         <v>3.9</v>
-      </c>
-      <c r="AR4">
-        <v>24.2</v>
-      </c>
-      <c r="AS4">
-        <v>2.4</v>
-      </c>
-      <c r="AT4">
-        <v>162</v>
-      </c>
-      <c r="AU4">
-        <v>7.4</v>
-      </c>
-      <c r="AV4">
-        <v>6.3</v>
-      </c>
-      <c r="AW4">
-        <v>6.5</v>
       </c>
       <c r="BA4">
         <v>1</v>
@@ -2115,75 +2208,75 @@
         <v>162</v>
       </c>
     </row>
-    <row r="5" spans="1:68" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:68" x14ac:dyDescent="0.3">
       <c r="A5" s="25" t="s">
         <v>163</v>
       </c>
       <c r="B5" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C5" t="s">
         <v>182</v>
       </c>
       <c r="D5">
-        <v>37.404949999999999</v>
+        <v>37.406934999999997</v>
       </c>
       <c r="E5">
-        <v>-87.519375999999994</v>
+        <v>-87.518592999999996</v>
       </c>
       <c r="F5" t="s">
         <v>183</v>
       </c>
       <c r="G5" s="26">
-        <v>0.7090277777777777</v>
+        <v>0.68958333333333333</v>
       </c>
       <c r="H5" t="s">
         <v>184</v>
       </c>
       <c r="I5" s="26">
-        <v>0.47638888888888892</v>
+        <v>0.45694444444444443</v>
       </c>
       <c r="J5">
-        <v>0.5</v>
+        <v>4</v>
       </c>
       <c r="R5" t="s">
         <v>184</v>
       </c>
       <c r="S5" s="26">
-        <v>0.3888888888888889</v>
+        <v>0.36041666666666666</v>
       </c>
       <c r="T5">
-        <v>29.2</v>
+        <v>28.9</v>
       </c>
       <c r="U5">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="V5">
         <v>40</v>
       </c>
       <c r="W5">
-        <v>3.3</v>
+        <v>1.9</v>
       </c>
       <c r="X5">
         <v>0.1</v>
       </c>
       <c r="Y5">
-        <v>29.7</v>
+        <v>29.8</v>
       </c>
       <c r="Z5">
-        <v>9.1999999999999993</v>
+        <v>9.01</v>
       </c>
       <c r="AA5">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="AB5">
-        <v>9.3000000000000007</v>
+        <v>9.31</v>
       </c>
       <c r="AC5">
-        <v>3.6</v>
+        <v>6.5</v>
       </c>
       <c r="AD5">
-        <v>1.3</v>
+        <v>4.7</v>
       </c>
       <c r="AH5">
         <v>1</v>
@@ -2192,25 +2285,25 @@
         <v>162</v>
       </c>
       <c r="AQ5">
-        <v>2.8</v>
+        <v>1.4</v>
       </c>
       <c r="AR5">
-        <v>28.3</v>
+        <v>29.3</v>
       </c>
       <c r="AS5">
-        <v>7.4</v>
+        <v>8.44</v>
       </c>
       <c r="AT5">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="AU5">
+        <v>9.17</v>
+      </c>
+      <c r="AV5">
         <v>8.3000000000000007</v>
       </c>
-      <c r="AV5">
-        <v>4.9000000000000004</v>
-      </c>
       <c r="AW5">
-        <v>3.9</v>
+        <v>3.6</v>
       </c>
       <c r="BA5">
         <v>1</v>
@@ -2219,196 +2312,196 @@
         <v>162</v>
       </c>
     </row>
-    <row r="6" spans="1:68" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:68" x14ac:dyDescent="0.3">
       <c r="A6" s="25" t="s">
         <v>163</v>
       </c>
       <c r="B6" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C6" t="s">
-        <v>182</v>
-      </c>
-      <c r="D6">
-        <v>37.406934999999997</v>
-      </c>
-      <c r="E6">
-        <v>-87.518592999999996</v>
-      </c>
-      <c r="F6" t="s">
-        <v>183</v>
-      </c>
-      <c r="G6" s="26">
-        <v>0.68958333333333333</v>
-      </c>
-      <c r="H6" t="s">
-        <v>184</v>
-      </c>
-      <c r="I6" s="26">
-        <v>0.45694444444444443</v>
-      </c>
-      <c r="J6">
-        <v>4</v>
-      </c>
-      <c r="R6" t="s">
-        <v>184</v>
-      </c>
-      <c r="S6" s="26">
-        <v>0.36041666666666666</v>
-      </c>
-      <c r="T6">
-        <v>28.9</v>
-      </c>
-      <c r="U6">
-        <v>35</v>
-      </c>
-      <c r="V6">
-        <v>40</v>
-      </c>
-      <c r="W6">
-        <v>1.9</v>
-      </c>
-      <c r="X6">
-        <v>0.1</v>
-      </c>
-      <c r="Y6">
-        <v>29.8</v>
-      </c>
-      <c r="Z6">
-        <v>9.01</v>
-      </c>
-      <c r="AA6">
-        <v>166</v>
-      </c>
-      <c r="AB6">
-        <v>9.31</v>
-      </c>
-      <c r="AC6">
-        <v>6.5</v>
-      </c>
-      <c r="AD6">
-        <v>4.7</v>
-      </c>
-      <c r="AH6">
-        <v>1</v>
-      </c>
-      <c r="AN6" t="s">
-        <v>162</v>
-      </c>
-      <c r="AQ6">
-        <v>1.4</v>
-      </c>
-      <c r="AR6">
-        <v>29.3</v>
-      </c>
-      <c r="AS6">
-        <v>8.44</v>
-      </c>
-      <c r="AT6">
-        <v>166</v>
-      </c>
-      <c r="AU6">
-        <v>9.17</v>
-      </c>
-      <c r="AV6">
-        <v>8.3000000000000007</v>
-      </c>
-      <c r="AW6">
-        <v>3.6</v>
-      </c>
-      <c r="BA6">
-        <v>1</v>
-      </c>
-      <c r="BG6" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="7" spans="1:68" x14ac:dyDescent="0.35">
+        <v>181</v>
+      </c>
+      <c r="J6" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="7" spans="1:68" x14ac:dyDescent="0.3">
       <c r="A7" s="25" t="s">
         <v>163</v>
       </c>
       <c r="B7" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C7" t="s">
-        <v>181</v>
-      </c>
-      <c r="J7" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="8" spans="1:68" x14ac:dyDescent="0.35">
+        <v>182</v>
+      </c>
+      <c r="D7">
+        <v>37.404187999999998</v>
+      </c>
+      <c r="E7">
+        <v>-87.520510000000002</v>
+      </c>
+      <c r="F7" t="s">
+        <v>183</v>
+      </c>
+      <c r="G7" s="26">
+        <v>0.77638888888888891</v>
+      </c>
+      <c r="H7" t="s">
+        <v>184</v>
+      </c>
+      <c r="I7" s="26">
+        <v>0.4826388888888889</v>
+      </c>
+      <c r="J7">
+        <v>34</v>
+      </c>
+      <c r="L7" t="s">
+        <v>187</v>
+      </c>
+      <c r="R7" t="s">
+        <v>184</v>
+      </c>
+      <c r="S7" s="26">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="T7">
+        <v>29.4</v>
+      </c>
+      <c r="U7">
+        <v>30</v>
+      </c>
+      <c r="V7">
+        <v>35</v>
+      </c>
+      <c r="W7">
+        <v>3.7</v>
+      </c>
+      <c r="X7">
+        <v>0.1</v>
+      </c>
+      <c r="Y7">
+        <v>29.3</v>
+      </c>
+      <c r="Z7">
+        <v>9.67</v>
+      </c>
+      <c r="AA7">
+        <v>165</v>
+      </c>
+      <c r="AB7">
+        <v>9.4</v>
+      </c>
+      <c r="AC7">
+        <v>5.3</v>
+      </c>
+      <c r="AD7">
+        <v>0.5</v>
+      </c>
+      <c r="AH7">
+        <v>1</v>
+      </c>
+      <c r="AN7" t="s">
+        <v>162</v>
+      </c>
+      <c r="AQ7">
+        <v>3.2</v>
+      </c>
+      <c r="AR7">
+        <v>26.8</v>
+      </c>
+      <c r="AS7">
+        <v>1.2</v>
+      </c>
+      <c r="AT7">
+        <v>164</v>
+      </c>
+      <c r="AU7">
+        <v>7.8</v>
+      </c>
+      <c r="AV7">
+        <v>6.3</v>
+      </c>
+      <c r="AW7">
+        <v>6</v>
+      </c>
+      <c r="BA7">
+        <v>1</v>
+      </c>
+      <c r="BG7" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="8" spans="1:68" x14ac:dyDescent="0.3">
       <c r="A8" s="25" t="s">
         <v>163</v>
       </c>
       <c r="B8" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C8" t="s">
         <v>182</v>
       </c>
       <c r="D8">
-        <v>37.404187999999998</v>
+        <v>37.405774999999998</v>
       </c>
       <c r="E8">
-        <v>-87.520510000000002</v>
+        <v>-87.520611000000002</v>
       </c>
       <c r="F8" t="s">
         <v>183</v>
       </c>
       <c r="G8" s="26">
-        <v>0.77638888888888891</v>
+        <v>0.73333333333333339</v>
       </c>
       <c r="H8" t="s">
         <v>184</v>
       </c>
       <c r="I8" s="26">
-        <v>0.4826388888888889</v>
+        <v>0.49305555555555558</v>
       </c>
       <c r="J8">
-        <v>34</v>
-      </c>
-      <c r="L8" t="s">
-        <v>187</v>
+        <v>2</v>
       </c>
       <c r="R8" t="s">
         <v>184</v>
       </c>
       <c r="S8" s="26">
-        <v>0.39583333333333331</v>
+        <v>0.44375000000000003</v>
       </c>
       <c r="T8">
-        <v>29.4</v>
+        <v>29.9</v>
       </c>
       <c r="U8">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="V8">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="W8">
-        <v>3.7</v>
+        <v>3.9</v>
       </c>
       <c r="X8">
         <v>0.1</v>
       </c>
       <c r="Y8">
-        <v>29.3</v>
+        <v>29.8</v>
       </c>
       <c r="Z8">
-        <v>9.67</v>
+        <v>8.6999999999999993</v>
       </c>
       <c r="AA8">
         <v>165</v>
       </c>
       <c r="AB8">
-        <v>9.4</v>
+        <v>9.3000000000000007</v>
       </c>
       <c r="AC8">
-        <v>5.3</v>
+        <v>2.9</v>
       </c>
       <c r="AD8">
-        <v>0.5</v>
+        <v>1.7</v>
       </c>
       <c r="AH8">
         <v>1</v>
@@ -2417,25 +2510,25 @@
         <v>162</v>
       </c>
       <c r="AQ8">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="AR8">
-        <v>26.8</v>
+        <v>25.7</v>
       </c>
       <c r="AS8">
-        <v>1.2</v>
+        <v>5.6</v>
       </c>
       <c r="AT8">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="AU8">
-        <v>7.8</v>
+        <v>7.6</v>
       </c>
       <c r="AV8">
-        <v>6.3</v>
+        <v>7.3</v>
       </c>
       <c r="AW8">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="BA8">
         <v>1</v>
@@ -2444,54 +2537,54 @@
         <v>162</v>
       </c>
     </row>
-    <row r="9" spans="1:68" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:68" x14ac:dyDescent="0.3">
       <c r="A9" s="25" t="s">
         <v>163</v>
       </c>
       <c r="B9" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="C9" t="s">
         <v>182</v>
       </c>
       <c r="D9">
-        <v>37.405774999999998</v>
+        <v>37.406207999999999</v>
       </c>
       <c r="E9">
-        <v>-87.520611000000002</v>
+        <v>-87.523206000000002</v>
       </c>
       <c r="F9" t="s">
         <v>183</v>
       </c>
       <c r="G9" s="26">
-        <v>0.73333333333333339</v>
+        <v>0.74930555555555556</v>
       </c>
       <c r="H9" t="s">
         <v>184</v>
       </c>
       <c r="I9" s="26">
-        <v>0.49305555555555558</v>
+        <v>0.50763888888888886</v>
       </c>
       <c r="J9">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="R9" t="s">
         <v>184</v>
       </c>
       <c r="S9" s="26">
-        <v>0.44375000000000003</v>
+        <v>0.42569444444444443</v>
       </c>
       <c r="T9">
-        <v>29.9</v>
+        <v>29.6</v>
       </c>
       <c r="U9">
+        <v>30</v>
+      </c>
+      <c r="V9">
         <v>35</v>
       </c>
-      <c r="V9">
-        <v>40</v>
-      </c>
       <c r="W9">
-        <v>3.9</v>
+        <v>2.8</v>
       </c>
       <c r="X9">
         <v>0.1</v>
@@ -2500,19 +2593,19 @@
         <v>29.8</v>
       </c>
       <c r="Z9">
-        <v>8.6999999999999993</v>
+        <v>6.7</v>
       </c>
       <c r="AA9">
         <v>165</v>
       </c>
       <c r="AB9">
-        <v>9.3000000000000007</v>
+        <v>9.4</v>
       </c>
       <c r="AC9">
-        <v>2.9</v>
+        <v>5.5</v>
       </c>
       <c r="AD9">
-        <v>1.7</v>
+        <v>2.4</v>
       </c>
       <c r="AH9">
         <v>1</v>
@@ -2521,25 +2614,25 @@
         <v>162</v>
       </c>
       <c r="AQ9">
-        <v>3.4</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="AR9">
-        <v>25.7</v>
+        <v>28.3</v>
       </c>
       <c r="AS9">
-        <v>5.6</v>
+        <v>5.8</v>
       </c>
       <c r="AT9">
-        <v>161</v>
+        <v>166</v>
       </c>
       <c r="AU9">
-        <v>7.6</v>
+        <v>7.8</v>
       </c>
       <c r="AV9">
-        <v>7.3</v>
+        <v>4.2</v>
       </c>
       <c r="AW9">
-        <v>5.5</v>
+        <v>1.5</v>
       </c>
       <c r="BA9">
         <v>1</v>
@@ -2548,54 +2641,54 @@
         <v>162</v>
       </c>
     </row>
-    <row r="10" spans="1:68" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:68" x14ac:dyDescent="0.3">
       <c r="A10" s="25" t="s">
         <v>163</v>
       </c>
       <c r="B10" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C10" t="s">
         <v>182</v>
       </c>
       <c r="D10">
-        <v>37.406207999999999</v>
+        <v>37.405850000000001</v>
       </c>
       <c r="E10">
-        <v>-87.523206000000002</v>
+        <v>-87.522175000000004</v>
       </c>
       <c r="F10" t="s">
         <v>183</v>
       </c>
       <c r="G10" s="26">
-        <v>0.74930555555555556</v>
+        <v>0.74513888888888891</v>
       </c>
       <c r="H10" t="s">
         <v>184</v>
       </c>
       <c r="I10" s="26">
-        <v>0.50763888888888886</v>
+        <v>0.50416666666666665</v>
       </c>
       <c r="J10">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="R10" t="s">
         <v>184</v>
       </c>
       <c r="S10" s="26">
-        <v>0.42569444444444443</v>
+        <v>0.42152777777777778</v>
       </c>
       <c r="T10">
         <v>29.6</v>
       </c>
       <c r="U10">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="V10">
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="W10">
-        <v>2.8</v>
+        <v>4</v>
       </c>
       <c r="X10">
         <v>0.1</v>
@@ -2604,19 +2697,19 @@
         <v>29.8</v>
       </c>
       <c r="Z10">
-        <v>6.7</v>
+        <v>9.4</v>
       </c>
       <c r="AA10">
         <v>165</v>
       </c>
       <c r="AB10">
-        <v>9.4</v>
+        <v>9.3000000000000007</v>
       </c>
       <c r="AC10">
-        <v>5.5</v>
+        <v>4.8</v>
       </c>
       <c r="AD10">
-        <v>2.4</v>
+        <v>2</v>
       </c>
       <c r="AH10">
         <v>1</v>
@@ -2625,25 +2718,25 @@
         <v>162</v>
       </c>
       <c r="AQ10">
-        <v>2.2999999999999998</v>
+        <v>3</v>
       </c>
       <c r="AR10">
-        <v>28.3</v>
+        <v>27.1</v>
       </c>
       <c r="AS10">
-        <v>5.8</v>
+        <v>7.4</v>
       </c>
       <c r="AT10">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="AU10">
-        <v>7.8</v>
+        <v>8.1</v>
       </c>
       <c r="AV10">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="AW10">
-        <v>1.5</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="BA10">
         <v>1</v>
@@ -2652,63 +2745,66 @@
         <v>162</v>
       </c>
     </row>
-    <row r="11" spans="1:68" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:68" x14ac:dyDescent="0.3">
       <c r="A11" s="25" t="s">
         <v>163</v>
       </c>
       <c r="B11" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C11" t="s">
         <v>182</v>
       </c>
       <c r="D11">
-        <v>37.405850000000001</v>
+        <v>37.403430999999998</v>
       </c>
       <c r="E11">
-        <v>-87.522175000000004</v>
+        <v>-87.520301000000003</v>
       </c>
       <c r="F11" t="s">
         <v>183</v>
       </c>
       <c r="G11" s="26">
-        <v>0.74513888888888891</v>
+        <v>0.78125</v>
       </c>
       <c r="H11" t="s">
         <v>184</v>
       </c>
       <c r="I11" s="26">
-        <v>0.50416666666666665</v>
+        <v>0.47986111111111113</v>
       </c>
       <c r="J11">
-        <v>2</v>
+        <v>21</v>
+      </c>
+      <c r="L11" t="s">
+        <v>188</v>
       </c>
       <c r="R11" t="s">
         <v>184</v>
       </c>
       <c r="S11" s="26">
-        <v>0.42152777777777778</v>
+        <v>0.39166666666666666</v>
       </c>
       <c r="T11">
-        <v>29.6</v>
+        <v>29.3</v>
       </c>
       <c r="U11">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="V11">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="W11">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="X11">
         <v>0.1</v>
       </c>
       <c r="Y11">
-        <v>29.8</v>
+        <v>29.6</v>
       </c>
       <c r="Z11">
-        <v>9.4</v>
+        <v>8.9</v>
       </c>
       <c r="AA11">
         <v>165</v>
@@ -2717,10 +2813,10 @@
         <v>9.3000000000000007</v>
       </c>
       <c r="AC11">
-        <v>4.8</v>
+        <v>6.1</v>
       </c>
       <c r="AD11">
-        <v>2</v>
+        <v>0.4</v>
       </c>
       <c r="AH11">
         <v>1</v>
@@ -2729,25 +2825,25 @@
         <v>162</v>
       </c>
       <c r="AQ11">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="AR11">
-        <v>27.1</v>
+        <v>26.7</v>
       </c>
       <c r="AS11">
-        <v>7.4</v>
+        <v>5.82</v>
       </c>
       <c r="AT11">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="AU11">
-        <v>8.1</v>
+        <v>7.84</v>
       </c>
       <c r="AV11">
-        <v>4.3</v>
+        <v>3.1</v>
       </c>
       <c r="AW11">
-        <v>2.2000000000000002</v>
+        <v>3.2</v>
       </c>
       <c r="BA11">
         <v>1</v>
@@ -2756,48 +2852,42 @@
         <v>162</v>
       </c>
     </row>
-    <row r="12" spans="1:68" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:68" x14ac:dyDescent="0.3">
       <c r="A12" s="25" t="s">
         <v>163</v>
       </c>
       <c r="B12" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C12" t="s">
         <v>182</v>
       </c>
       <c r="D12">
-        <v>37.403430999999998</v>
+        <v>37.405315999999999</v>
       </c>
       <c r="E12">
-        <v>-87.520301000000003</v>
+        <v>-87.520314999999997</v>
       </c>
       <c r="F12" t="s">
         <v>183</v>
       </c>
       <c r="G12" s="26">
-        <v>0.78125</v>
+        <v>0.71736111111111101</v>
       </c>
       <c r="H12" t="s">
         <v>184</v>
       </c>
-      <c r="I12" s="26">
-        <v>0.47986111111111113</v>
-      </c>
-      <c r="J12">
-        <v>21</v>
-      </c>
-      <c r="L12" t="s">
-        <v>188</v>
+      <c r="J12" t="s">
+        <v>202</v>
       </c>
       <c r="R12" t="s">
         <v>184</v>
       </c>
       <c r="S12" s="26">
-        <v>0.39166666666666666</v>
+        <v>0.4069444444444445</v>
       </c>
       <c r="T12">
-        <v>29.3</v>
+        <v>29.4</v>
       </c>
       <c r="U12">
         <v>30</v>
@@ -2806,16 +2896,16 @@
         <v>35</v>
       </c>
       <c r="W12">
-        <v>3.6</v>
+        <v>6.3</v>
       </c>
       <c r="X12">
         <v>0.1</v>
       </c>
       <c r="Y12">
-        <v>29.6</v>
+        <v>29.8</v>
       </c>
       <c r="Z12">
-        <v>8.9</v>
+        <v>7.2</v>
       </c>
       <c r="AA12">
         <v>165</v>
@@ -2824,10 +2914,10 @@
         <v>9.3000000000000007</v>
       </c>
       <c r="AC12">
-        <v>6.1</v>
+        <v>4.5</v>
       </c>
       <c r="AD12">
-        <v>0.4</v>
+        <v>3.5</v>
       </c>
       <c r="AH12">
         <v>1</v>
@@ -2836,25 +2926,25 @@
         <v>162</v>
       </c>
       <c r="AQ12">
-        <v>3.1</v>
+        <v>5.8</v>
       </c>
       <c r="AR12">
-        <v>26.7</v>
+        <v>13.6</v>
       </c>
       <c r="AS12">
-        <v>5.82</v>
+        <v>1.4</v>
       </c>
       <c r="AT12">
-        <v>164</v>
+        <v>232</v>
       </c>
       <c r="AU12">
-        <v>7.84</v>
+        <v>7.9</v>
       </c>
       <c r="AV12">
-        <v>3.1</v>
+        <v>57.6</v>
       </c>
       <c r="AW12">
-        <v>3.2</v>
+        <v>10.5</v>
       </c>
       <c r="BA12">
         <v>1</v>
@@ -2863,42 +2953,45 @@
         <v>162</v>
       </c>
     </row>
-    <row r="13" spans="1:68" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:68" x14ac:dyDescent="0.3">
       <c r="A13" s="25" t="s">
         <v>163</v>
       </c>
       <c r="B13" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C13" t="s">
         <v>182</v>
       </c>
       <c r="D13">
-        <v>37.405315999999999</v>
+        <v>37.406475999999998</v>
       </c>
       <c r="E13">
-        <v>-87.520314999999997</v>
+        <v>-87.523782999999995</v>
       </c>
       <c r="F13" t="s">
         <v>183</v>
       </c>
       <c r="G13" s="26">
-        <v>0.71736111111111101</v>
+        <v>0.75486111111111109</v>
       </c>
       <c r="H13" t="s">
         <v>184</v>
       </c>
-      <c r="J13" t="s">
-        <v>202</v>
+      <c r="I13" s="26">
+        <v>0.51041666666666663</v>
+      </c>
+      <c r="J13">
+        <v>0</v>
       </c>
       <c r="R13" t="s">
         <v>184</v>
       </c>
       <c r="S13" s="26">
-        <v>0.4069444444444445</v>
+        <v>0.42777777777777781</v>
       </c>
       <c r="T13">
-        <v>29.4</v>
+        <v>29.5</v>
       </c>
       <c r="U13">
         <v>30</v>
@@ -2907,7 +3000,7 @@
         <v>35</v>
       </c>
       <c r="W13">
-        <v>6.3</v>
+        <v>2.6</v>
       </c>
       <c r="X13">
         <v>0.1</v>
@@ -2916,19 +3009,19 @@
         <v>29.8</v>
       </c>
       <c r="Z13">
-        <v>7.2</v>
+        <v>11.1</v>
       </c>
       <c r="AA13">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="AB13">
-        <v>9.3000000000000007</v>
+        <v>9.6999999999999993</v>
       </c>
       <c r="AC13">
-        <v>4.5</v>
+        <v>5.3</v>
       </c>
       <c r="AD13">
-        <v>3.5</v>
+        <v>1.2</v>
       </c>
       <c r="AH13">
         <v>1</v>
@@ -2937,25 +3030,25 @@
         <v>162</v>
       </c>
       <c r="AQ13">
-        <v>5.8</v>
+        <v>2.1</v>
       </c>
       <c r="AR13">
-        <v>13.6</v>
+        <v>28.9</v>
       </c>
       <c r="AS13">
-        <v>1.4</v>
+        <v>9.0299999999999994</v>
       </c>
       <c r="AT13">
-        <v>232</v>
+        <v>165</v>
       </c>
       <c r="AU13">
-        <v>7.9</v>
+        <v>8.8000000000000007</v>
       </c>
       <c r="AV13">
-        <v>57.6</v>
+        <v>4.8</v>
       </c>
       <c r="AW13">
-        <v>10.5</v>
+        <v>0.7</v>
       </c>
       <c r="BA13">
         <v>1</v>
@@ -2964,75 +3057,75 @@
         <v>162</v>
       </c>
     </row>
-    <row r="14" spans="1:68" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:68" x14ac:dyDescent="0.3">
       <c r="A14" s="25" t="s">
         <v>163</v>
       </c>
       <c r="B14" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="C14" t="s">
         <v>182</v>
       </c>
       <c r="D14">
-        <v>37.406475999999998</v>
+        <v>37.405389999999997</v>
       </c>
       <c r="E14">
-        <v>-87.523782999999995</v>
+        <v>-87.520611000000002</v>
       </c>
       <c r="F14" t="s">
         <v>183</v>
       </c>
       <c r="G14" s="26">
-        <v>0.75486111111111109</v>
+        <v>0.7270833333333333</v>
       </c>
       <c r="H14" t="s">
         <v>184</v>
       </c>
       <c r="I14" s="26">
-        <v>0.51041666666666663</v>
+        <v>0.48958333333333331</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="R14" t="s">
         <v>184</v>
       </c>
       <c r="S14" s="26">
-        <v>0.42777777777777781</v>
+        <v>0.40972222222222227</v>
       </c>
       <c r="T14">
-        <v>29.5</v>
+        <v>29.6</v>
       </c>
       <c r="U14">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="V14">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="W14">
-        <v>2.6</v>
+        <v>6.8</v>
       </c>
       <c r="X14">
         <v>0.1</v>
       </c>
       <c r="Y14">
-        <v>29.8</v>
+        <v>29.7</v>
       </c>
       <c r="Z14">
-        <v>11.1</v>
+        <v>9.1999999999999993</v>
       </c>
       <c r="AA14">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="AB14">
-        <v>9.6999999999999993</v>
+        <v>9.3000000000000007</v>
       </c>
       <c r="AC14">
-        <v>5.3</v>
+        <v>4.7</v>
       </c>
       <c r="AD14">
-        <v>1.2</v>
+        <v>3.2</v>
       </c>
       <c r="AH14">
         <v>1</v>
@@ -3041,25 +3134,25 @@
         <v>162</v>
       </c>
       <c r="AQ14">
-        <v>2.1</v>
+        <v>5.8</v>
       </c>
       <c r="AR14">
-        <v>28.9</v>
+        <v>12.9</v>
       </c>
       <c r="AS14">
-        <v>9.0299999999999994</v>
+        <v>2.7</v>
       </c>
       <c r="AT14">
-        <v>165</v>
+        <v>241</v>
       </c>
       <c r="AU14">
-        <v>8.8000000000000007</v>
+        <v>8.1999999999999993</v>
       </c>
       <c r="AV14">
-        <v>4.8</v>
+        <v>55.9</v>
       </c>
       <c r="AW14">
-        <v>0.7</v>
+        <v>10.5</v>
       </c>
       <c r="BA14">
         <v>1</v>
@@ -3068,75 +3161,81 @@
         <v>162</v>
       </c>
     </row>
-    <row r="15" spans="1:68" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:68" x14ac:dyDescent="0.3">
       <c r="A15" s="25" t="s">
         <v>163</v>
       </c>
       <c r="B15" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="C15" t="s">
         <v>182</v>
       </c>
       <c r="D15">
-        <v>37.405389999999997</v>
+        <v>37.405557999999999</v>
       </c>
       <c r="E15">
-        <v>-87.520611000000002</v>
+        <v>-87.518861000000001</v>
       </c>
       <c r="F15" t="s">
         <v>183</v>
       </c>
       <c r="G15" s="26">
-        <v>0.7270833333333333</v>
+        <v>0.7055555555555556</v>
       </c>
       <c r="H15" t="s">
         <v>184</v>
       </c>
       <c r="I15" s="26">
-        <v>0.48958333333333331</v>
+        <v>0.46388888888888885</v>
       </c>
       <c r="J15">
-        <v>0.5</v>
+        <v>20</v>
+      </c>
+      <c r="L15" t="s">
+        <v>185</v>
+      </c>
+      <c r="M15" t="s">
+        <v>186</v>
       </c>
       <c r="R15" t="s">
         <v>184</v>
       </c>
       <c r="S15" s="26">
-        <v>0.40972222222222227</v>
+        <v>0.37986111111111115</v>
       </c>
       <c r="T15">
-        <v>29.6</v>
+        <v>29.3</v>
       </c>
       <c r="U15">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="V15">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="W15">
-        <v>6.8</v>
+        <v>7.1</v>
       </c>
       <c r="X15">
         <v>0.1</v>
       </c>
       <c r="Y15">
-        <v>29.7</v>
+        <v>29.9</v>
       </c>
       <c r="Z15">
-        <v>9.1999999999999993</v>
+        <v>9.5</v>
       </c>
       <c r="AA15">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="AB15">
-        <v>9.3000000000000007</v>
+        <v>9.4</v>
       </c>
       <c r="AC15">
-        <v>4.7</v>
+        <v>4</v>
       </c>
       <c r="AD15">
-        <v>3.2</v>
+        <v>0.2</v>
       </c>
       <c r="AH15">
         <v>1</v>
@@ -3145,25 +3244,25 @@
         <v>162</v>
       </c>
       <c r="AQ15">
-        <v>5.8</v>
+        <v>6.1</v>
       </c>
       <c r="AR15">
-        <v>12.9</v>
+        <v>11.5</v>
       </c>
       <c r="AS15">
-        <v>2.7</v>
+        <v>2.1</v>
       </c>
       <c r="AT15">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="AU15">
-        <v>8.1999999999999993</v>
+        <v>8.5</v>
       </c>
       <c r="AV15">
-        <v>55.9</v>
+        <v>42.6</v>
       </c>
       <c r="AW15">
-        <v>10.5</v>
+        <v>9.6</v>
       </c>
       <c r="BA15">
         <v>1</v>
@@ -3172,81 +3271,75 @@
         <v>162</v>
       </c>
     </row>
-    <row r="16" spans="1:68" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:68" x14ac:dyDescent="0.3">
       <c r="A16" s="25" t="s">
         <v>163</v>
       </c>
       <c r="B16" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C16" t="s">
         <v>182</v>
       </c>
       <c r="D16">
-        <v>37.405557999999999</v>
+        <v>37.406888000000002</v>
       </c>
       <c r="E16">
-        <v>-87.518861000000001</v>
+        <v>-87.518934999999999</v>
       </c>
       <c r="F16" t="s">
         <v>183</v>
       </c>
       <c r="G16" s="26">
-        <v>0.7055555555555556</v>
+        <v>0.6958333333333333</v>
       </c>
       <c r="H16" t="s">
         <v>184</v>
       </c>
       <c r="I16" s="26">
-        <v>0.46388888888888885</v>
+        <v>0.45763888888888887</v>
       </c>
       <c r="J16">
-        <v>20</v>
-      </c>
-      <c r="L16" t="s">
-        <v>185</v>
-      </c>
-      <c r="M16" t="s">
-        <v>186</v>
+        <v>9</v>
       </c>
       <c r="R16" t="s">
         <v>184</v>
       </c>
       <c r="S16" s="26">
-        <v>0.37986111111111115</v>
+        <v>0.36736111111111108</v>
       </c>
       <c r="T16">
-        <v>29.3</v>
+        <v>29</v>
       </c>
       <c r="U16">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="V16">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="W16">
-        <v>7.1</v>
+        <v>3.4</v>
       </c>
       <c r="X16">
         <v>0.1</v>
       </c>
       <c r="Y16">
-        <v>29.9</v>
+        <v>29.8</v>
       </c>
       <c r="Z16">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AA16">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="AB16">
-        <v>9.4</v>
+        <v>9.3000000000000007</v>
       </c>
       <c r="AC16">
-        <v>4</v>
+        <v>6.3</v>
       </c>
       <c r="AD16">
-        <v>0.2</v>
+        <v>0.6</v>
       </c>
       <c r="AH16">
         <v>1</v>
@@ -3255,25 +3348,25 @@
         <v>162</v>
       </c>
       <c r="AQ16">
+        <v>2.9</v>
+      </c>
+      <c r="AR16">
+        <v>27.8</v>
+      </c>
+      <c r="AS16">
+        <v>5.3</v>
+      </c>
+      <c r="AT16">
+        <v>168</v>
+      </c>
+      <c r="AU16">
+        <v>7.7</v>
+      </c>
+      <c r="AV16">
         <v>6.1</v>
       </c>
-      <c r="AR16">
-        <v>11.5</v>
-      </c>
-      <c r="AS16">
-        <v>2.1</v>
-      </c>
-      <c r="AT16">
-        <v>239</v>
-      </c>
-      <c r="AU16">
-        <v>8.5</v>
-      </c>
-      <c r="AV16">
-        <v>42.6</v>
-      </c>
       <c r="AW16">
-        <v>9.6</v>
+        <v>2</v>
       </c>
       <c r="BA16">
         <v>1</v>
@@ -3282,75 +3375,78 @@
         <v>162</v>
       </c>
     </row>
-    <row r="17" spans="1:59" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:59" x14ac:dyDescent="0.3">
       <c r="A17" s="25" t="s">
         <v>163</v>
       </c>
       <c r="B17" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C17" t="s">
         <v>182</v>
       </c>
       <c r="D17">
-        <v>37.406888000000002</v>
+        <v>37.406534999999998</v>
       </c>
       <c r="E17">
-        <v>-87.518934999999999</v>
+        <v>-87.524561000000006</v>
       </c>
       <c r="F17" t="s">
         <v>183</v>
       </c>
       <c r="G17" s="26">
-        <v>0.6958333333333333</v>
+        <v>0.81944444444444453</v>
       </c>
       <c r="H17" t="s">
         <v>184</v>
       </c>
       <c r="I17" s="26">
-        <v>0.45763888888888887</v>
+        <v>0.51250000000000007</v>
       </c>
       <c r="J17">
-        <v>9</v>
+        <v>33</v>
+      </c>
+      <c r="L17" t="s">
+        <v>189</v>
       </c>
       <c r="R17" t="s">
         <v>184</v>
       </c>
       <c r="S17" s="26">
-        <v>0.36736111111111108</v>
+        <v>0.4375</v>
       </c>
       <c r="T17">
-        <v>29</v>
+        <v>29.7</v>
       </c>
       <c r="U17">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="V17">
         <v>40</v>
       </c>
       <c r="W17">
-        <v>3.4</v>
+        <v>1.5</v>
       </c>
       <c r="X17">
         <v>0.1</v>
       </c>
       <c r="Y17">
-        <v>29.8</v>
+        <v>29.69</v>
       </c>
       <c r="Z17">
-        <v>9</v>
+        <v>11.25</v>
       </c>
       <c r="AA17">
         <v>165</v>
       </c>
       <c r="AB17">
-        <v>9.3000000000000007</v>
+        <v>9.65</v>
       </c>
       <c r="AC17">
-        <v>6.3</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="AD17">
-        <v>0.6</v>
+        <v>0.8</v>
       </c>
       <c r="AH17">
         <v>1</v>
@@ -3359,25 +3455,25 @@
         <v>162</v>
       </c>
       <c r="AQ17">
-        <v>2.9</v>
+        <v>1</v>
       </c>
       <c r="AR17">
-        <v>27.8</v>
+        <v>29.69</v>
       </c>
       <c r="AS17">
-        <v>5.3</v>
+        <v>11.11</v>
       </c>
       <c r="AT17">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="AU17">
-        <v>7.7</v>
+        <v>9.65</v>
       </c>
       <c r="AV17">
-        <v>6.1</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="AW17">
-        <v>2</v>
+        <v>0.5</v>
       </c>
       <c r="BA17">
         <v>1</v>
@@ -3386,78 +3482,75 @@
         <v>162</v>
       </c>
     </row>
-    <row r="18" spans="1:59" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:59" x14ac:dyDescent="0.3">
       <c r="A18" s="25" t="s">
         <v>163</v>
       </c>
       <c r="B18" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C18" t="s">
         <v>182</v>
       </c>
       <c r="D18">
-        <v>37.406534999999998</v>
+        <v>37.405236000000002</v>
       </c>
       <c r="E18">
-        <v>-87.524561000000006</v>
+        <v>-87.522157000000007</v>
       </c>
       <c r="F18" t="s">
         <v>183</v>
       </c>
       <c r="G18" s="26">
-        <v>0.81944444444444453</v>
+        <v>0.80555555555555547</v>
       </c>
       <c r="H18" t="s">
         <v>184</v>
       </c>
       <c r="I18" s="26">
-        <v>0.51250000000000007</v>
+        <v>0.49722222222222223</v>
       </c>
       <c r="J18">
-        <v>33</v>
-      </c>
-      <c r="L18" t="s">
-        <v>189</v>
+        <v>14</v>
       </c>
       <c r="R18" t="s">
         <v>184</v>
       </c>
       <c r="S18" s="26">
-        <v>0.4375</v>
+        <v>0.41388888888888892</v>
       </c>
       <c r="T18">
-        <v>29.7</v>
+        <v>29.5</v>
       </c>
       <c r="U18">
         <v>30</v>
       </c>
       <c r="V18">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="W18">
-        <v>1.5</v>
+        <v>4</v>
       </c>
       <c r="X18">
         <v>0.1</v>
       </c>
       <c r="Y18">
-        <v>29.69</v>
+        <v>29.6</v>
       </c>
       <c r="Z18">
-        <v>11.25</v>
+        <v>9.7200000000000006</v>
       </c>
       <c r="AA18">
         <v>165</v>
       </c>
       <c r="AB18">
-        <v>9.65</v>
+        <v>9.44</v>
       </c>
       <c r="AC18">
-        <v>5.0999999999999996</v>
+        <v>4</v>
       </c>
       <c r="AD18">
-        <v>0.8</v>
+        <v>1.7</v>
       </c>
       <c r="AH18">
         <v>1</v>
@@ -3466,25 +3559,25 @@
         <v>162</v>
       </c>
       <c r="AQ18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AR18">
-        <v>29.69</v>
+        <v>27.21</v>
       </c>
       <c r="AS18">
-        <v>11.11</v>
+        <v>5.82</v>
       </c>
       <c r="AT18">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="AU18">
-        <v>9.65</v>
+        <v>7.84</v>
       </c>
       <c r="AV18">
-        <v>4.5999999999999996</v>
+        <v>3.1</v>
       </c>
       <c r="AW18">
-        <v>0.5</v>
+        <v>3.2</v>
       </c>
       <c r="BA18">
         <v>1</v>
@@ -3493,108 +3586,15 @@
         <v>162</v>
       </c>
     </row>
-    <row r="19" spans="1:59" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:59" x14ac:dyDescent="0.3">
       <c r="A19" s="25" t="s">
         <v>163</v>
       </c>
       <c r="B19" t="s">
-        <v>180</v>
+        <v>164</v>
       </c>
       <c r="C19" t="s">
-        <v>182</v>
-      </c>
-      <c r="D19">
-        <v>37.405236000000002</v>
-      </c>
-      <c r="E19">
-        <v>-87.522157000000007</v>
-      </c>
-      <c r="F19" t="s">
-        <v>183</v>
-      </c>
-      <c r="G19" s="26">
-        <v>0.80555555555555547</v>
-      </c>
-      <c r="H19" t="s">
-        <v>184</v>
-      </c>
-      <c r="I19" s="26">
-        <v>0.49722222222222223</v>
-      </c>
-      <c r="J19">
-        <v>14</v>
-      </c>
-      <c r="R19" t="s">
-        <v>184</v>
-      </c>
-      <c r="S19" s="26">
-        <v>0.41388888888888892</v>
-      </c>
-      <c r="T19">
-        <v>29.5</v>
-      </c>
-      <c r="U19">
-        <v>30</v>
-      </c>
-      <c r="V19">
-        <v>35</v>
-      </c>
-      <c r="W19">
-        <v>4</v>
-      </c>
-      <c r="X19">
-        <v>0.1</v>
-      </c>
-      <c r="Y19">
-        <v>29.6</v>
-      </c>
-      <c r="Z19">
-        <v>9.7200000000000006</v>
-      </c>
-      <c r="AA19">
-        <v>165</v>
-      </c>
-      <c r="AB19">
-        <v>9.44</v>
-      </c>
-      <c r="AC19">
-        <v>4</v>
-      </c>
-      <c r="AD19">
-        <v>1.7</v>
-      </c>
-      <c r="AH19">
-        <v>1</v>
-      </c>
-      <c r="AN19" t="s">
-        <v>162</v>
-      </c>
-      <c r="AQ19">
-        <v>3</v>
-      </c>
-      <c r="AR19">
-        <v>27.21</v>
-      </c>
-      <c r="AS19">
-        <v>5.82</v>
-      </c>
-      <c r="AT19">
-        <v>164</v>
-      </c>
-      <c r="AU19">
-        <v>7.84</v>
-      </c>
-      <c r="AV19">
-        <v>3.1</v>
-      </c>
-      <c r="AW19">
-        <v>3.2</v>
-      </c>
-      <c r="BA19">
-        <v>1</v>
-      </c>
-      <c r="BG19" t="s">
-        <v>162</v>
+        <v>181</v>
       </c>
     </row>
   </sheetData>
@@ -3620,14 +3620,14 @@
       <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.7265625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="116.7265625" customWidth="1"/>
-    <col min="3" max="3" width="49.54296875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="116.77734375" customWidth="1"/>
+    <col min="3" max="3" width="49.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>137</v>
       </c>
@@ -3638,7 +3638,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -3649,7 +3649,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -3660,7 +3660,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" ht="72" x14ac:dyDescent="0.3">
       <c r="A4" s="16" t="s">
         <v>2</v>
       </c>
@@ -3671,7 +3671,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>11</v>
       </c>
@@ -3682,7 +3682,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>12</v>
       </c>
@@ -3693,7 +3693,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>3</v>
       </c>
@@ -3704,7 +3704,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>4</v>
       </c>
@@ -3715,7 +3715,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>5</v>
       </c>
@@ -3726,7 +3726,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>6</v>
       </c>
@@ -3737,7 +3737,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>7</v>
       </c>
@@ -3748,7 +3748,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>16</v>
       </c>
@@ -3759,7 +3759,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>8</v>
       </c>
@@ -3770,7 +3770,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>13</v>
       </c>
@@ -3778,7 +3778,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>9</v>
       </c>
@@ -3789,7 +3789,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>14</v>
       </c>
@@ -3797,7 +3797,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>10</v>
       </c>
@@ -3808,7 +3808,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>15</v>
       </c>
@@ -3816,7 +3816,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>20</v>
       </c>
@@ -3827,7 +3827,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>19</v>
       </c>
@@ -3838,7 +3838,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>21</v>
       </c>
@@ -3849,7 +3849,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>17</v>
       </c>
@@ -3860,7 +3860,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>18</v>
       </c>
@@ -3871,7 +3871,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>22</v>
       </c>
@@ -3882,7 +3882,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>23</v>
       </c>
@@ -3893,7 +3893,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>24</v>
       </c>
@@ -3904,7 +3904,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>25</v>
       </c>
@@ -3915,7 +3915,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>26</v>
       </c>
@@ -3926,7 +3926,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>27</v>
       </c>
@@ -3937,7 +3937,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>150</v>
       </c>
@@ -3948,7 +3948,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>28</v>
       </c>
@@ -3959,7 +3959,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>35</v>
       </c>
@@ -3967,7 +3967,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>36</v>
       </c>
@@ -3975,7 +3975,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>37</v>
       </c>
@@ -3983,7 +3983,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>38</v>
       </c>
@@ -3991,7 +3991,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>151</v>
       </c>
@@ -3999,7 +3999,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>39</v>
       </c>
@@ -4007,7 +4007,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>156</v>
       </c>
@@ -4015,7 +4015,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>141</v>
       </c>
@@ -4023,7 +4023,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>142</v>
       </c>
@@ -4031,7 +4031,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>143</v>
       </c>
@@ -4039,7 +4039,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>152</v>
       </c>
@@ -4047,7 +4047,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>144</v>
       </c>
@@ -4055,7 +4055,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>29</v>
       </c>
@@ -4066,7 +4066,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>30</v>
       </c>
@@ -4077,7 +4077,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>31</v>
       </c>
@@ -4088,7 +4088,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>32</v>
       </c>
@@ -4099,7 +4099,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>33</v>
       </c>
@@ -4110,7 +4110,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>153</v>
       </c>
@@ -4121,7 +4121,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>34</v>
       </c>
@@ -4132,7 +4132,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>40</v>
       </c>
@@ -4140,7 +4140,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>41</v>
       </c>
@@ -4148,7 +4148,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>42</v>
       </c>
@@ -4156,7 +4156,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>43</v>
       </c>
@@ -4164,7 +4164,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>154</v>
       </c>
@@ -4172,7 +4172,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>44</v>
       </c>
@@ -4180,7 +4180,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>145</v>
       </c>
@@ -4188,7 +4188,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>146</v>
       </c>
@@ -4196,7 +4196,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>147</v>
       </c>
@@ -4204,7 +4204,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>148</v>
       </c>
@@ -4212,7 +4212,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>155</v>
       </c>
@@ -4220,7 +4220,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>149</v>
       </c>
@@ -4228,7 +4228,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>49</v>
       </c>
@@ -4239,7 +4239,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>50</v>
       </c>
@@ -4250,7 +4250,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>51</v>
       </c>
@@ -4261,7 +4261,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>52</v>
       </c>
@@ -4272,7 +4272,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>53</v>
       </c>
@@ -4296,17 +4296,17 @@
       <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.81640625" style="25"/>
-    <col min="3" max="3" width="15.453125" customWidth="1"/>
-    <col min="5" max="5" width="13.26953125" customWidth="1"/>
-    <col min="7" max="7" width="12.26953125" customWidth="1"/>
-    <col min="9" max="9" width="14.26953125" customWidth="1"/>
+    <col min="1" max="1" width="8.77734375" style="25"/>
+    <col min="3" max="3" width="15.44140625" customWidth="1"/>
+    <col min="5" max="5" width="13.21875" customWidth="1"/>
+    <col min="7" max="7" width="12.21875" customWidth="1"/>
+    <col min="9" max="9" width="14.21875" customWidth="1"/>
     <col min="10" max="10" width="17" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" s="34" t="s">
         <v>59</v>
       </c>
@@ -4322,7 +4322,7 @@
       <c r="K1" s="19"/>
       <c r="L1" s="19"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -4356,7 +4356,7 @@
       <c r="K2" s="3"/>
       <c r="L2" s="2"/>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="25" t="s">
         <v>163</v>
       </c>
@@ -4385,7 +4385,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" s="25" t="s">
         <v>163</v>
       </c>
@@ -4414,7 +4414,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" s="25" t="s">
         <v>163</v>
       </c>
@@ -4443,7 +4443,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" s="25" t="s">
         <v>163</v>
       </c>
@@ -4472,7 +4472,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" s="25" t="s">
         <v>163</v>
       </c>
@@ -4501,7 +4501,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8" s="25" t="s">
         <v>163</v>
       </c>
@@ -4548,14 +4548,14 @@
       <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.7265625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="63.54296875" customWidth="1"/>
-    <col min="3" max="3" width="49.54296875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="63.5546875" customWidth="1"/>
+    <col min="3" max="3" width="49.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>137</v>
       </c>
@@ -4566,7 +4566,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -4577,7 +4577,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -4588,7 +4588,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="20" t="s">
         <v>45</v>
       </c>
@@ -4599,7 +4599,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="20" t="s">
         <v>46</v>
       </c>
@@ -4610,7 +4610,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="20" t="s">
         <v>47</v>
       </c>
@@ -4621,7 +4621,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="21" t="s">
         <v>48</v>
       </c>
@@ -4629,7 +4629,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="20" t="s">
         <v>125</v>
       </c>
@@ -4640,7 +4640,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="20" t="s">
         <v>126</v>
       </c>
@@ -4651,7 +4651,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="22" t="s">
         <v>127</v>
       </c>
@@ -4662,7 +4662,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="20" t="s">
         <v>160</v>
       </c>
@@ -4679,15 +4679,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <Record xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4">Shared</Record>
@@ -4729,7 +4720,21 @@
 </p:properties>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<SharedContentType xmlns="Microsoft.SharePoint.Taxonomy.ContentTypeSync" SourceId="29f62856-1543-49d4-a736-4569d363f533" ContentTypeId="0x0101" PreviousValue="false"/>
+</file>
+
+<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101001AF5FC5DD832BE4DBA6B24560DD3ADC0" ma:contentTypeVersion="19" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="d40b3e6283001fb57e5088f84fb23d5e">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4" xmlns:ns3="http://schemas.microsoft.com/sharepoint.v3" xmlns:ns4="http://schemas.microsoft.com/sharepoint/v3/fields" xmlns:ns5="8b03727f-4454-4722-b3e6-018d8dcaf2fd" xmlns:ns6="ed970698-2d60-4bab-a048-d9be527522d9" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="aadbb8160917885bdc8cfb32badaafe9" ns1:_="" ns2:_="" ns3:_="" ns4:_="" ns5:_="" ns6:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -5200,20 +5205,7 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<SharedContentType xmlns="Microsoft.SharePoint.Taxonomy.ContentTypeSync" SourceId="29f62856-1543-49d4-a736-4569d363f533" ContentTypeId="0x0101" PreviousValue="false"/>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5F4A5FCF-4499-487A-89B0-E215184C11DF}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7D26D44A-9508-4707-B138-18882E5BA6FE}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
@@ -5227,14 +5219,41 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F9A5413B-EA94-4DA0-98AA-43EC0C82CA3C}"/>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5F4A5FCF-4499-487A-89B0-E215184C11DF}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{845EA28A-135D-4CD8-9991-40FEAFECD172}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="Microsoft.SharePoint.Taxonomy.ContentTypeSync"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F9A5413B-EA94-4DA0-98AA-43EC0C82CA3C}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint.v3"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/fields"/>
+    <ds:schemaRef ds:uri="8b03727f-4454-4722-b3e6-018d8dcaf2fd"/>
+    <ds:schemaRef ds:uri="ed970698-2d60-4bab-a048-d9be527522d9"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/SuRGE_Sharepoint/data/CIN/CH4_209_otter/dataSheets/surgeData209.xlsx
+++ b/SuRGE_Sharepoint/data/CIN/CH4_209_otter/dataSheets/surgeData209.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://usepa.sharepoint.com/sites/SuRGE/Shared Documents/data/CIN/CH4_209_otter/dataSheets/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://usepa-my.sharepoint.com/personal/beaulieu_jake_epa_gov/Documents/gitRepository/SuRGE/SuRGE_Sharepoint/data/CIN/CH4_209_otter/dataSheets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1034" documentId="8_{574317AD-36CA-42B2-83FE-C04BF0299D3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6E638E40-3D98-4A7C-BC3E-D78E09F98B67}"/>
+  <xr:revisionPtr revIDLastSave="1035" documentId="8_{574317AD-36CA-42B2-83FE-C04BF0299D3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{99F03DA0-8FC0-4ABE-ACF7-F60B55150D94}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12432" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2268" yWindow="2268" windowWidth="34560" windowHeight="13560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
@@ -1321,10 +1321,6 @@
 </styleSheet>
 </file>
 
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
@@ -1626,7 +1622,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="2" topLeftCell="BE1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="A3" sqref="A3:BI3"/>
+      <selection pane="topRight" activeCell="BS19" sqref="BS19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2082,15 +2078,6 @@
       <c r="BG3" t="s">
         <v>162</v>
       </c>
-      <c r="BJ3" t="s">
-        <v>190</v>
-      </c>
-      <c r="BK3" t="s">
-        <v>191</v>
-      </c>
-      <c r="BL3" t="s">
-        <v>192</v>
-      </c>
       <c r="BM3">
         <v>1.7541</v>
       </c>
@@ -3269,6 +3256,15 @@
       </c>
       <c r="BG15" t="s">
         <v>162</v>
+      </c>
+      <c r="BJ15" t="s">
+        <v>190</v>
+      </c>
+      <c r="BK15" t="s">
+        <v>191</v>
+      </c>
+      <c r="BL15" t="s">
+        <v>192</v>
       </c>
     </row>
     <row r="16" spans="1:68" x14ac:dyDescent="0.3">
@@ -4679,6 +4675,20 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<SharedContentType xmlns="Microsoft.SharePoint.Taxonomy.ContentTypeSync" SourceId="29f62856-1543-49d4-a736-4569d363f533" ContentTypeId="0x0101" PreviousValue="false"/>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <Record xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4">Shared</Record>
@@ -4718,20 +4728,6 @@
     </lcf76f155ced4ddcb4097134ff3c332f>
   </documentManagement>
 </p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<SharedContentType xmlns="Microsoft.SharePoint.Taxonomy.ContentTypeSync" SourceId="29f62856-1543-49d4-a736-4569d363f533" ContentTypeId="0x0101" PreviousValue="false"/>
 </file>
 
 <file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
@@ -5206,15 +5202,9 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7D26D44A-9508-4707-B138-18882E5BA6FE}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{845EA28A-135D-4CD8-9991-40FEAFECD172}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/fields"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint.v3"/>
-    <ds:schemaRef ds:uri="ed970698-2d60-4bab-a048-d9be527522d9"/>
+    <ds:schemaRef ds:uri="Microsoft.SharePoint.Taxonomy.ContentTypeSync"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -5228,9 +5218,15 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{845EA28A-135D-4CD8-9991-40FEAFECD172}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7D26D44A-9508-4707-B138-18882E5BA6FE}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="Microsoft.SharePoint.Taxonomy.ContentTypeSync"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/fields"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint.v3"/>
+    <ds:schemaRef ds:uri="ed970698-2d60-4bab-a048-d9be527522d9"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
